--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N2">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O2">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P2">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q2">
-        <v>366.9598252016349</v>
+        <v>12.198782838649</v>
       </c>
       <c r="R2">
-        <v>3302.638426814714</v>
+        <v>109.789045547841</v>
       </c>
       <c r="S2">
-        <v>0.01028085981454773</v>
+        <v>0.0006438035466283764</v>
       </c>
       <c r="T2">
-        <v>0.01028085981454773</v>
+        <v>0.0006438035466283763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P3">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q3">
-        <v>1351.419262409225</v>
+        <v>250.939500713515</v>
       </c>
       <c r="R3">
-        <v>12162.77336168303</v>
+        <v>2258.455506421635</v>
       </c>
       <c r="S3">
-        <v>0.03786177950099708</v>
+        <v>0.01324359509349271</v>
       </c>
       <c r="T3">
-        <v>0.03786177950099708</v>
+        <v>0.01324359509349271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N4">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q4">
-        <v>3363.321563380315</v>
+        <v>693.7593955518779</v>
       </c>
       <c r="R4">
-        <v>30269.89407042284</v>
+        <v>6243.834559966901</v>
       </c>
       <c r="S4">
-        <v>0.09422785582960992</v>
+        <v>0.03661387904602809</v>
       </c>
       <c r="T4">
-        <v>0.09422785582960992</v>
+        <v>0.03661387904602809</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N5">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q5">
-        <v>2016.44840158688</v>
+        <v>675.5225622633699</v>
       </c>
       <c r="R5">
-        <v>18148.03561428192</v>
+        <v>6079.703060370329</v>
       </c>
       <c r="S5">
-        <v>0.05649344128772815</v>
+        <v>0.03565141106002431</v>
       </c>
       <c r="T5">
-        <v>0.05649344128772816</v>
+        <v>0.03565141106002431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N6">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O6">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P6">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q6">
-        <v>397.8519676802438</v>
+        <v>71.22632966379945</v>
       </c>
       <c r="R6">
-        <v>3580.667709122194</v>
+        <v>641.036966974195</v>
       </c>
       <c r="S6">
-        <v>0.01114634362062677</v>
+        <v>0.00375904418148938</v>
       </c>
       <c r="T6">
-        <v>0.01114634362062678</v>
+        <v>0.00375904418148938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P7">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q7">
         <v>1465.187128904536</v>
@@ -883,10 +883,10 @@
         <v>13186.68416014083</v>
       </c>
       <c r="S7">
-        <v>0.04104913519094431</v>
+        <v>0.07732678600314005</v>
       </c>
       <c r="T7">
-        <v>0.04104913519094432</v>
+        <v>0.07732678600314005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N8">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q8">
-        <v>3646.45939428655</v>
+        <v>4050.72670515781</v>
       </c>
       <c r="R8">
-        <v>32818.13454857895</v>
+        <v>36456.54034642029</v>
       </c>
       <c r="S8">
-        <v>0.1021603327598642</v>
+        <v>0.2137813463602648</v>
       </c>
       <c r="T8">
-        <v>0.1021603327598642</v>
+        <v>0.2137813463602648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N9">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q9">
-        <v>2186.201074889351</v>
+        <v>3944.245368698927</v>
       </c>
       <c r="R9">
-        <v>19675.80967400416</v>
+        <v>35498.20831829035</v>
       </c>
       <c r="S9">
-        <v>0.06124928461855729</v>
+        <v>0.2081616822537144</v>
       </c>
       <c r="T9">
-        <v>0.0612492846185573</v>
+        <v>0.2081616822537145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N10">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O10">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P10">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q10">
-        <v>119.6751596548177</v>
+        <v>22.54040737468789</v>
       </c>
       <c r="R10">
-        <v>1077.07643689336</v>
+        <v>202.863666372191</v>
       </c>
       <c r="S10">
-        <v>0.003352856239831557</v>
+        <v>0.00118959361783996</v>
       </c>
       <c r="T10">
-        <v>0.003352856239831557</v>
+        <v>0.001189593617839959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P11">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q11">
-        <v>440.7330309266222</v>
+        <v>463.6756508659873</v>
       </c>
       <c r="R11">
-        <v>3966.597278339601</v>
+        <v>4173.080857793885</v>
       </c>
       <c r="S11">
-        <v>0.01234771273424169</v>
+        <v>0.02447096833029645</v>
       </c>
       <c r="T11">
-        <v>0.01234771273424169</v>
+        <v>0.02447096833029644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N12">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q12">
-        <v>1096.866788746871</v>
+        <v>1281.899973349178</v>
       </c>
       <c r="R12">
-        <v>9871.80109872184</v>
+        <v>11537.0997601426</v>
       </c>
       <c r="S12">
-        <v>0.03073015876913349</v>
+        <v>0.06765361431390331</v>
       </c>
       <c r="T12">
-        <v>0.0307301587691335</v>
+        <v>0.06765361431390331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N13">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q13">
-        <v>657.6163596737421</v>
+        <v>1248.202705598425</v>
       </c>
       <c r="R13">
-        <v>5918.547237063679</v>
+        <v>11233.82435038583</v>
       </c>
       <c r="S13">
-        <v>0.01842398306638614</v>
+        <v>0.06587520569916129</v>
       </c>
       <c r="T13">
-        <v>0.01842398306638614</v>
+        <v>0.06587520569916129</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N14">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O14">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P14">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q14">
-        <v>960.7939555252079</v>
+        <v>35.62939742822534</v>
       </c>
       <c r="R14">
-        <v>8647.145599726871</v>
+        <v>320.664576854028</v>
       </c>
       <c r="S14">
-        <v>0.02691790024150975</v>
+        <v>0.001880378783024866</v>
       </c>
       <c r="T14">
-        <v>0.02691790024150976</v>
+        <v>0.001880378783024866</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P15">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q15">
-        <v>3538.358614569488</v>
+        <v>732.9274829809534</v>
       </c>
       <c r="R15">
-        <v>31845.22753112539</v>
+        <v>6596.34734682858</v>
       </c>
       <c r="S15">
-        <v>0.09913174792362568</v>
+        <v>0.03868101590181312</v>
       </c>
       <c r="T15">
-        <v>0.0991317479236257</v>
+        <v>0.03868101590181311</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N16">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q16">
-        <v>8806.029452427922</v>
+        <v>2026.286519780424</v>
       </c>
       <c r="R16">
-        <v>79254.2650718513</v>
+        <v>18236.57867802382</v>
       </c>
       <c r="S16">
-        <v>0.2467124412691337</v>
+        <v>0.10693939429652</v>
       </c>
       <c r="T16">
-        <v>0.2467124412691338</v>
+        <v>0.10693939429652</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N17">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q17">
-        <v>5279.573683055344</v>
+        <v>1973.021584281293</v>
       </c>
       <c r="R17">
-        <v>47516.1631474981</v>
+        <v>17757.19425853164</v>
       </c>
       <c r="S17">
-        <v>0.1479141671332625</v>
+        <v>0.1041282815126589</v>
       </c>
       <c r="T17">
-        <v>0.1479141671332626</v>
+        <v>0.1041282815126589</v>
       </c>
     </row>
   </sheetData>
